--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949207.9995665986</v>
+        <v>969464.337123747</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7284586.54396833</v>
+        <v>7331909.188256042</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>278.2270124820743</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>423.5376944361009</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -820,7 +820,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>156.9008720352532</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>100.176219543324</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>350.5663185572392</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>426.1073322928576</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.5591556145158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>46.4771045885317</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>38.92859933434407</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>156.0665348042639</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537896</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089047</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.30825486907117</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>135.6786012922736</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.08339867820153</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518606</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.38971918733542</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253733</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>251.0418677784801</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170484</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4898091149251</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>111.6992875207545</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>189.9879808697036</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>231.671617397293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>205.472742255922</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>98.73120706589795</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2761,13 +2761,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>28.46824604904465</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>98.98021706930203</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6230741389438</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>136.0564930766999</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,10 +3241,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3661,25 +3661,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>60.80118788412247</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>20.2836911377513</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>341.9346838574872</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287215</v>
       </c>
     </row>
     <row r="42">
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>422.7926164890736</v>
+        <v>248.977891910922</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>98.73120706589795</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>205.932098358612</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.4118020839784</v>
+        <v>1658.784860784286</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1624.682792008114</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1196.866939042355</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>763.0921942006503</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2063.823806883754</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2063.823806883754</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1701.206856817581</v>
       </c>
       <c r="W2" t="n">
-        <v>846.059151609114</v>
+        <v>1700.391806269018</v>
       </c>
       <c r="X2" t="n">
-        <v>830.9570922288287</v>
+        <v>1685.289746888733</v>
       </c>
       <c r="Y2" t="n">
-        <v>826.7113725688862</v>
+        <v>1681.04402722879</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1126.823017523199</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1020.366556359842</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>925.276267506395</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>831.1558528333487</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>747.7720144495104</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>662.3869247156942</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>620.6512725319067</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>646.7149456923643</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>971.2732706585765</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1536.536301576228</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1625.9793172843</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1625.9793172843</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1625.9793172843</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1625.9793172843</v>
       </c>
       <c r="P3" t="n">
-        <v>1644.724363562988</v>
+        <v>1625.9793172843</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>2166.718255916376</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2220.435596459099</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2090.2569527897</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1913.920405789669</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1714.802887851668</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1529.480133584862</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1374.612697823742</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1248.126918602963</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>376.725261525528</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>204.1635500087529</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>196.7623387080738</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>614.9722204760349</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1074.456087656948</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1516.714890814592</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1936.384140040374</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2124.649665308712</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1878.770218887167</v>
       </c>
       <c r="U4" t="n">
-        <v>1595.995329531605</v>
+        <v>1600.337218140272</v>
       </c>
       <c r="V4" t="n">
-        <v>1309.039821402036</v>
+        <v>1313.381710010703</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.013416988327</v>
+        <v>1041.355305596994</v>
       </c>
       <c r="X4" t="n">
-        <v>791.6216623217397</v>
+        <v>795.9635509304069</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>568.5438802445151</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.069156190556</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C5" t="n">
-        <v>812.9617637084964</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
-        <v>781.092382923345</v>
+        <v>507.639688839479</v>
       </c>
       <c r="E5" t="n">
-        <v>751.3580421220443</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295003</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1189.32832263506</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>694.5306623601665</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>528.6526695616892</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.2559470001092</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>1581.337547761512</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.75587349878</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>724.8884439079882</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1113.00182921349</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.00182921349</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.00182921349</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1113.00182921349</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1113.00182921349</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
@@ -5045,22 +5045,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="L11" t="n">
-        <v>199.0316880464641</v>
+        <v>1171.795942933974</v>
       </c>
       <c r="M11" t="n">
-        <v>1356.079523257015</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5075,16 +5075,16 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>1051.621568765315</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>914.5724765508969</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>748.6944837524196</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5239,10 +5239,10 @@
         <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177145</v>
+        <v>1243.440187484302</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146356</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>249.7027052300509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>249.7027052300509</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L14" t="n">
-        <v>1324.76267148291</v>
+        <v>1171.795942933974</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693461</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693461</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263767</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097163</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055758</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>914.5724765508968</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508968</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031567</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F16" t="n">
-        <v>402.2294259649129</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907405</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2662.496880334081</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2416.617433912536</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2138.184433165641</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.228925036072</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W16" t="n">
-        <v>1579.202520622363</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.810765955776</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.391095269884</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181362</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364786</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.97319753923</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423107</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315497</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.51554725239</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125429</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442445</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376272</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787305</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366616</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.205346548041</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>303.5569696238768</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>126.849915585633</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563213</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2434.294711728304</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2155.861710981409</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1868.90620285184</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W19" t="n">
-        <v>1596.879798438132</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438132</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.728611060351</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>863.1668995435758</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>697.2889067450985</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
         <v>584.4613435928212</v>
@@ -5917,43 +5917,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173571</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="Y22" t="n">
-        <v>1227.547229779338</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562605</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2325.667346726836</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2047.234345979941</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1760.278837850371</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1488.252433436663</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.836497258927</v>
+        <v>1242.860678770075</v>
       </c>
       <c r="Y25" t="n">
-        <v>1041.416826573035</v>
+        <v>1015.441008084184</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6227,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
         <v>5113.04201353898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957669</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789919</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>777.0165135789919</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G28" t="n">
         <v>330.8229638057298</v>
@@ -6382,19 +6382,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354691</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066047</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745658</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
         <v>2203.220781338905</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6476,10 +6476,10 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562605</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577832</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>296.6079193348955</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>131.0166443607231</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>131.0166443607231</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354698</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066054</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745665</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2597.522611637232</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2351.643165215688</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2073.210164468793</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1786.254656339223</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1514.228251925515</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1268.836497258927</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1041.416826573035</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,10 +6774,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1090.187678435286</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C34" t="n">
-        <v>917.6259669185114</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D34" t="n">
-        <v>751.7479741200341</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E34" t="n">
-        <v>581.9899703707713</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F34" t="n">
-        <v>405.2829163325276</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>239.6916413583553</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2026.844126920461</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W34" t="n">
-        <v>1754.817722506753</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X34" t="n">
-        <v>1509.425967840165</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y34" t="n">
-        <v>1282.006297154273</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7117,7 +7117,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S37" t="n">
         <v>2700.681281130895</v>
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,34 +7181,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883919</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C40" t="n">
-        <v>750.3393363912985</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D40" t="n">
-        <v>584.4613435928212</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>507.5300178439737</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638995</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822418</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369036</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601675</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583062</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900079</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833905</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824249</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.9095056074548</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429398</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952134</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663489</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.96149003431</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390638</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.521462222199</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678921</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2511.87917085155</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C44" t="n">
         <v>2084.815921872688</v>
@@ -7673,25 +7673,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U44" t="n">
-        <v>4533.079733112634</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V44" t="n">
-        <v>4170.462783046461</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W44" t="n">
-        <v>3765.607328457494</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X44" t="n">
-        <v>3346.464865036804</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y44" t="n">
-        <v>2938.178741336458</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1035.891962983371</v>
+        <v>944.0533615061028</v>
       </c>
       <c r="C46" t="n">
-        <v>863.3302514665962</v>
+        <v>771.4916499893277</v>
       </c>
       <c r="D46" t="n">
-        <v>697.4522586681189</v>
+        <v>771.4916499893277</v>
       </c>
       <c r="E46" t="n">
-        <v>527.694254918856</v>
+        <v>601.7336462400649</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9872008806122</v>
+        <v>425.0265922018211</v>
       </c>
       <c r="G46" t="n">
-        <v>185.3959259064399</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H46" t="n">
         <v>185.3959259064399</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S46" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T46" t="n">
-        <v>2467.51614016237</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U46" t="n">
-        <v>2259.503919598115</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.548411468546</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.522007054837</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.13025238825</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y46" t="n">
-        <v>1227.710581702358</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>90.34648051320391</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.98895607821123</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>34.867532687005</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>103.3290013791403</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>15.28233895957987</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154.511847019127</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>15.28233895957987</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265347</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9887,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.0111327346213</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>35.15749310933373</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73195639979983</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>107.2592358276479</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>81.7827269140524</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>178.3951296148076</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9308428424042</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>56.36113619101562</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>35.15749310932915</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>11.74903456003631</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>37.46509486399961</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>59.30510368402676</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>58.66873794568127</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>15.21302026266351</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.446659489829329</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0349065174848</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.136960819578</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>89.61600311981265</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>268.0111327346216</v>
       </c>
     </row>
     <row r="42">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>10.96843159933729</v>
+        <v>184.7831561774889</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>69.71657238081372</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>605879.7120523871</v>
+        <v>616409.2763777114</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>605879.7120523871</v>
+        <v>623339.8149331213</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>605879.7120523871</v>
+        <v>623339.8149331213</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621063.0070066169</v>
+        <v>621063.0070066171</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629826.8100511555</v>
+        <v>647272.5756021901</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>647272.5756021901</v>
+        <v>647272.5756021902</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647272.5756021902</v>
+        <v>647272.5756021901</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638508.7725576519</v>
+        <v>621063.0070066171</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="E2" t="n">
         <v>353866.7285801735</v>
@@ -26326,16 +26326,16 @@
         <v>353866.7285801735</v>
       </c>
       <c r="G2" t="n">
-        <v>358860.1322740097</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
+        <v>368800.3088961468</v>
+      </c>
+      <c r="I2" t="n">
         <v>368800.3088961466</v>
       </c>
-      <c r="I2" t="n">
-        <v>368800.3088961467</v>
-      </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
         <v>368800.3088961467</v>
@@ -26344,13 +26344,13 @@
         <v>368800.3088961467</v>
       </c>
       <c r="M2" t="n">
+        <v>368800.3088961466</v>
+      </c>
+      <c r="N2" t="n">
         <v>368800.3088961467</v>
       </c>
-      <c r="N2" t="n">
-        <v>368800.3088961468</v>
-      </c>
       <c r="O2" t="n">
-        <v>363806.9052023108</v>
+        <v>353866.7285801736</v>
       </c>
       <c r="P2" t="n">
         <v>353866.7285801735</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.119437218</v>
+        <v>189053.9025590639</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
         <v>91036.59625752567</v>
@@ -26430,7 +26430,7 @@
         <v>91036.59625752567</v>
       </c>
       <c r="G4" t="n">
-        <v>92321.21116848527</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
@@ -26439,22 +26439,22 @@
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>93593.82973779329</v>
+        <v>91036.59625752567</v>
       </c>
       <c r="P4" t="n">
         <v>91036.59625752567</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38406.08431086416</v>
+        <v>-73439.62610043387</v>
       </c>
       <c r="C6" t="n">
-        <v>103785.2163488457</v>
+        <v>96011.02915762605</v>
       </c>
       <c r="D6" t="n">
-        <v>103785.2163488458</v>
+        <v>127201.0640950852</v>
       </c>
       <c r="E6" t="n">
-        <v>-45044.23197703704</v>
+        <v>27499.15628008905</v>
       </c>
       <c r="F6" t="n">
-        <v>189310.7900450003</v>
+        <v>189234.2314902034</v>
       </c>
       <c r="G6" t="n">
-        <v>185286.3652624319</v>
+        <v>177251.8733400539</v>
       </c>
       <c r="H6" t="n">
-        <v>183800.8706616379</v>
+        <v>196180.4013022188</v>
       </c>
       <c r="I6" t="n">
-        <v>196203.6256416013</v>
+        <v>196180.4013022185</v>
       </c>
       <c r="J6" t="n">
-        <v>85189.16029661114</v>
+        <v>46788.80487654363</v>
       </c>
       <c r="K6" t="n">
-        <v>196203.6256416013</v>
+        <v>171333.4645182851</v>
       </c>
       <c r="L6" t="n">
-        <v>196203.6256416013</v>
+        <v>196180.4013022186</v>
       </c>
       <c r="M6" t="n">
-        <v>602.4463585336925</v>
+        <v>61190.45668921511</v>
       </c>
       <c r="N6" t="n">
-        <v>196203.6256416013</v>
+        <v>196180.4013022186</v>
       </c>
       <c r="O6" t="n">
-        <v>193898.8393813195</v>
+        <v>189234.2314902036</v>
       </c>
       <c r="P6" t="n">
-        <v>189310.7900450003</v>
+        <v>189234.2314902034</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>155.5340356063366</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>8.012992541199026</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.318340835239354</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27585,13 +27585,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.4724511961017</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>83.19472953117173</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>3.329665100430134</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.34127691728142</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>124.3589898130756</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>392.6220876429558</v>
-      </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>50.45407964317427</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>119.5821359351618</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>90.34648051320391</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34793,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.98895607821123</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>34.867532687005</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>103.3290013791403</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>15.28233895957987</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154.511847019127</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>15.28233895957987</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,13 +35893,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>798.0672825265347</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36604,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.4542274390803</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36844,7 +36844,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908095</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,7 +36996,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37069,28 +37069,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908043</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
